--- a/main/experiment/results_summary_excel/synt1_results_summary3.xlsx
+++ b/main/experiment/results_summary_excel/synt1_results_summary3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\willi\workspace-VisualStudio\AG_IA_2324\main\experiment\results_summary_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{456D36CB-AB71-488F-9296-CDF4454C964C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86D016A2-1D4B-4CE7-B984-098DA1EB4188}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-3240" yWindow="2235" windowWidth="28800" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8610" yWindow="2550" windowWidth="28800" windowHeight="13845" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -451,14 +451,15 @@
   <dimension ref="A1:I481"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.85546875" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" customWidth="1"/>
+    <col min="1" max="1" width="6.28515625" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" customWidth="1"/>
     <col min="5" max="5" width="17.85546875" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
   </cols>
